--- a/biology/Botanique/Bulbophyllum_forrestii/Bulbophyllum_forrestii.xlsx
+++ b/biology/Botanique/Bulbophyllum_forrestii/Bulbophyllum_forrestii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bulbophyllum forrestii est une espèce de plantes à fleurs du genre Bulbophyllum et de la famille des Orchidaceae. C'est une orchidée épiphyte nommée en l'honneur du botaniste George Forrest (1873-1932) par Gunnar Seidenfaden en 1974[1]. Elle fleurit en mai-juin.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bulbophyllum forrestii est une espèce de plantes à fleurs du genre Bulbophyllum et de la famille des Orchidaceae. C'est une orchidée épiphyte nommée en l'honneur du botaniste George Forrest (1873-1932) par Gunnar Seidenfaden en 1974. Elle fleurit en mai-juin.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Synonymes
-Cirrhopetalum aemulum W.W.Sm.[2]
+Cirrhopetalum aemulum W.W.Sm.
 Bulbophyllum aemulum Schltr. (1905)
 Rhytionanthos aemulus (W.W.Sm.) Garay, Hamer &amp; Siegerist</t>
         </is>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,7 +586,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bulbophyllum forrestii pousse sur les troncs des forêts humides du sud et de l'ouest du Yunnan, ainsi que dans certaines forêts de Thaïlande et de Birmanie.
 </t>
